--- a/biology/Botanique/Prospect_Park/Prospect_Park.xlsx
+++ b/biology/Botanique/Prospect_Park/Prospect_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Prospect Park est un parc public de New York aux États-Unis situé dans l'arrondissement de Brooklyn. Avec une superficie de 2,1 km2, c'est l'un des plus grands parcs de la ville.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a été créé par les architectes-paysagistes Frederick Law Olmsted et Calvert Vaux. La création du parc leur fut confiée à la fin des années 1850, après qu'ils prirent leur distance avec le chantier de Central Park. Les deux architectes avaient d'ailleurs une préférence pour Prospect Park par rapport à Central Park[réf. nécessaire].
 Il fut ouvert en 1867. 
@@ -545,7 +559,9 @@
           <t>Dans Prospect Park</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Long Meadow, la plus grande prairie du parc, qui avec ses 35 ha, en fait le plus long espace vert urbain des États-Unis.
 Friends' Cemetery : cimetière Quaker, créé en 1846.
@@ -593,7 +609,9 @@
           <t>Aux abords de Prospect Park</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Grand Army Plaza, l'entrée nord du Park
 Le cimetière de Green-Wood
